--- a/Relatorios/ENVIOS 1Q0323.xlsx
+++ b/Relatorios/ENVIOS 1Q0323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205988CE-17F3-4D22-8CD4-E06DBC125EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B9187E-618E-4808-A551-479579806C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>NOME</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>CONTATO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>#CLT</t>
+  </si>
+  <si>
+    <t>SLA</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E290"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +426,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -433,8 +442,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -467,8 +482,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -484,8 +502,11 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -500,6 +521,9 @@
       </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
